--- a/frasi.xlsx
+++ b/frasi.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marco\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marco\Desktop\Marco\Pyton\WEBAPP FRASI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{953397A5-31C4-4298-B1A4-1AA4467F74DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{197C17F6-6A48-4FAC-AF5A-31A951BB9DED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{E843759C-5EF3-4469-9895-EF226037731B}"/>
   </bookViews>
@@ -40,10 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="477">
-  <si>
-    <t>Non capisci un cazzo di niente.</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="527">
   <si>
     <t>Gennaio (31 giorni)</t>
   </si>
@@ -1176,301 +1173,454 @@
     <t>31 Dicembre: zio sbroccato</t>
   </si>
   <si>
-    <t>Hai la mamma puttana e ti vanti pure.</t>
-  </si>
-  <si>
-    <t>Stai solo sprecando aria, idiota.</t>
-  </si>
-  <si>
-    <t>Sei più inutile di un ombrello bucato.</t>
-  </si>
-  <si>
-    <t>Vaffanculo e togliti di mezzo.</t>
-  </si>
-  <si>
-    <t>Hai la testa dura come un sasso, ma vuota.</t>
-  </si>
-  <si>
-    <t>Fai solo pena con le tue stronzate.</t>
-  </si>
-  <si>
-    <t>Sparisci e non tornare a rompere.</t>
-  </si>
-  <si>
-    <t>Sei la barzelletta del quartiere, cretino.</t>
-  </si>
-  <si>
-    <t>Fai un favore al mondo: impara il silenzio.</t>
-  </si>
-  <si>
-    <t>Ma chi cazzo ti credi di essere?</t>
-  </si>
-  <si>
-    <t>Testa di cazzo è il tuo soprannome perfetto.</t>
-  </si>
-  <si>
-    <t>Guarda che la tua arroganza fa schifo a tutti.</t>
-  </si>
-  <si>
-    <t>Hai rotto le palle con le tue lamentele continue.</t>
-  </si>
-  <si>
-    <t>Faresti meglio a chiudere quella fogna che chiami bocca.</t>
-  </si>
-  <si>
-    <t>Sei un fallito patentato, rassegnati.</t>
-  </si>
-  <si>
-    <t>Non hai un briciolo di dignità.</t>
-  </si>
-  <si>
-    <t>Ti comporti da coglione e non te ne accorgi nemmeno.</t>
-  </si>
-  <si>
-    <t>Stai zitto che è meglio, buffone.</t>
-  </si>
-  <si>
-    <t>Vai a farti fottere e non tornare.</t>
-  </si>
-  <si>
-    <t>Hai un cervello grande quanto una nocciolina.</t>
-  </si>
-  <si>
-    <t>Sei così fastidioso che riesci a irritare anche i muri.</t>
-  </si>
-  <si>
-    <t>Mi fai venire il voltastomaco ogni volta che parli.</t>
-  </si>
-  <si>
-    <t>Sei la versione vivente del disastro.</t>
-  </si>
-  <si>
-    <t>Non vali neanche il tempo che impiego a insultarti.</t>
-  </si>
-  <si>
-    <t>Ti atteggi a grande uomo, ma sei solo un vigliacco.</t>
-  </si>
-  <si>
-    <t>Fai meno il figo e più il silenzioso, ti conviene.</t>
-  </si>
-  <si>
-    <t>Sei l’errore più clamoroso della natura.</t>
-  </si>
-  <si>
-    <t>La tua stupidità è imbarazzante per chiunque ti stia vicino.</t>
-  </si>
-  <si>
-    <t>Finirai per parlare da solo, perché nessuno ti regge più.</t>
-  </si>
-  <si>
-    <t>Sei bravo solo a sparare cazzate.</t>
-  </si>
-  <si>
-    <t>Ti credi un fenomeno, ma sei solo un poveraccio.</t>
-  </si>
-  <si>
-    <t>Hai la sensibilità di uno scaricatore di porto ubriaco.</t>
-  </si>
-  <si>
-    <t>L’unica cosa che sai fare è rompere le scatole.</t>
-  </si>
-  <si>
-    <t>Sei talmente idiota che mi vengono i brividi.</t>
-  </si>
-  <si>
-    <t>Hai rotto il cazzo con le tue storie da quattro soldi.</t>
-  </si>
-  <si>
-    <t>Non ti sopporta più nemmeno lo specchio.</t>
-  </si>
-  <si>
-    <t>Sei un arrogante di merda, punto e basta.</t>
-  </si>
-  <si>
-    <t>Non basta tutta l’acqua del mare a lavare la tua faccia tosta.</t>
-  </si>
-  <si>
-    <t>Sei più falso di un sorriso stampato.</t>
-  </si>
-  <si>
-    <t>Manco la spazzatura ti vorrebbe, figurati le persone.</t>
-  </si>
-  <si>
-    <t>Sei un ammasso di problemi ambulante.</t>
-  </si>
-  <si>
-    <t>Taci, che la tua voce mi irrita l’anima.</t>
-  </si>
-  <si>
-    <t>Non sai ragionare neanche su come allacciarti le scarpe.</t>
-  </si>
-  <si>
-    <t>Vai a raccontare queste cazzate a qualcun altro.</t>
-  </si>
-  <si>
-    <t>Sei la definizione vivente di “persona insulsa”.</t>
-  </si>
-  <si>
-    <t>Hai la personalità di un foglio bianco.</t>
-  </si>
-  <si>
-    <t>La tua ironia fa schifo come te.</t>
-  </si>
-  <si>
-    <t>Non hai mezza idea di come funzioni il rispetto.</t>
-  </si>
-  <si>
-    <t>Toglimi dagli occhi le tue facezie da sfigato.</t>
-  </si>
-  <si>
-    <t>Ma perché non sprofondi dalla vergogna?</t>
-  </si>
-  <si>
-    <t>Sei un ignorante maleducato, e ne vai pure fiero.</t>
-  </si>
-  <si>
-    <t>Piantala di sputare sentenze come se fossi onnisciente.</t>
-  </si>
-  <si>
-    <t>Faresti sembrare un parassita più utile di te.</t>
-  </si>
-  <si>
-    <t>Puzza anche la tua presenza virtuale.</t>
-  </si>
-  <si>
-    <t>Hai la prontezza mentale di un bradipo in coma.</t>
-  </si>
-  <si>
-    <t>Non sai fare altro che offendere per sentirti importante.</t>
-  </si>
-  <si>
-    <t>Qui l’unico che non conta un cazzo sei tu.</t>
-  </si>
-  <si>
-    <t>Hai la faccia come il culo, ma è un insulto al culo stesso.</t>
-  </si>
-  <si>
-    <t>Se esistesse un premio per la stupidità, saresti campione del mondo.</t>
-  </si>
-  <si>
-    <t>Hai un’aria così spocchiosa che ti tirerei uno schiaffo virtuale.</t>
-  </si>
-  <si>
-    <t>Parli come se avessi il cervello scollegato.</t>
-  </si>
-  <si>
-    <t>Non verresti preso sul serio neanche in un circo di buffoni.</t>
-  </si>
-  <si>
-    <t>Ogni tuo messaggio è un’offesa all’intelligenza umana.</t>
-  </si>
-  <si>
-    <t>La tua arroganza fa venire l’orticaria.</t>
-  </si>
-  <si>
-    <t>Sei un incapace a tutto tondo, complimenti.</t>
-  </si>
-  <si>
-    <t>Sembra che tu esista solo per disturbare la gente.</t>
-  </si>
-  <si>
-    <t>Non c’è speranza di avere un discorso civile con te.</t>
-  </si>
-  <si>
-    <t>Sei una macchia d’olio nel mare della decenza.</t>
-  </si>
-  <si>
-    <t>Basta guardarti per capire che la fortuna è cieca.</t>
-  </si>
-  <si>
-    <t>Pure un sasso avrebbe più empatia di te.</t>
-  </si>
-  <si>
-    <t>Hai la mentalità ristretta come un buco di serratura.</t>
-  </si>
-  <si>
-    <t>Non sai neanche sputare veleno in modo coerente.</t>
-  </si>
-  <si>
-    <t>Mi fai pena quando cerchi di sembrare intelligente.</t>
-  </si>
-  <si>
-    <t>Sei un sacco di merda ben confezionato.</t>
-  </si>
-  <si>
-    <t>Ti credi un genio, ma sei un misero scarabocchio.</t>
-  </si>
-  <si>
-    <t>Fai venire mal di testa a chiunque ti ascolti.</t>
-  </si>
-  <si>
-    <t>Se avessi un minimo di dignità, avresti già chiesto scusa al mondo.</t>
-  </si>
-  <si>
-    <t>Sei irritante come una zanzara che ronza nell’orecchio.</t>
-  </si>
-  <si>
-    <t>Non sai gestire neanche due parole in croce.</t>
-  </si>
-  <si>
-    <t>Vai a zappare la terra, forse è meno complicato per te.</t>
-  </si>
-  <si>
-    <t>Ogni tua frase puzza di arroganza stantia.</t>
-  </si>
-  <si>
-    <t>Sei un manipolatore da quattro soldi.</t>
-  </si>
-  <si>
-    <t>Guardati allo specchio e chiedi scusa a te stesso.</t>
-  </si>
-  <si>
-    <t>Sei il più grande spreco di ossigeno che abbia mai visto.</t>
-  </si>
-  <si>
-    <t>Mi basta leggere due righe tue per volerti mandare a fanculo.</t>
-  </si>
-  <si>
-    <t>Sembri un disco rotto pieno di volgarità inutili.</t>
-  </si>
-  <si>
-    <t>Non sai distinguere la verità nemmeno se te la sbattono in faccia.</t>
-  </si>
-  <si>
-    <t>Stai facendo la figura del pecorone incompetente.</t>
-  </si>
-  <si>
-    <t>Sei un esempio perfetto di come non si dovrebbe essere.</t>
-  </si>
-  <si>
-    <t>Hai la coerenza di un ubriaco che barcolla.</t>
-  </si>
-  <si>
-    <t>Ti esprimi come uno scaricatore di porto in piena rissa.</t>
-  </si>
-  <si>
-    <t>È incredibile quanta stupidità riesca a stare in una sola persona.</t>
-  </si>
-  <si>
-    <t>Non sai stare al tuo posto nemmeno se te lo indicano chiaramente.</t>
-  </si>
-  <si>
-    <t>Il tuo sarcasmo è patetico e fuori luogo.</t>
-  </si>
-  <si>
-    <t>Hai la testa più vuota di una bottiglia di plastica schiacciata.</t>
-  </si>
-  <si>
-    <t>Faresti sorridere perfino un gatto isterico.</t>
-  </si>
-  <si>
-    <t>Ti meriti solo indifferenza.</t>
-  </si>
-  <si>
-    <t>Se dovessi ascoltarti un minuto in più, perderei la sanità mentale.</t>
-  </si>
-  <si>
-    <t>Sei la rovina di ogni conversazione.</t>
+    <t>Sii sempre te stesso… anche se sarebbe meglio di no.</t>
+  </si>
+  <si>
+    <t>Le stelle brillano nel cielo, tu brilli nell’inutilità.</t>
+  </si>
+  <si>
+    <t>Sei la prova vivente che la pazienza è davvero una virtù.</t>
+  </si>
+  <si>
+    <t>Non smettere mai di sognare, è l’unico posto dove hai successo.</t>
+  </si>
+  <si>
+    <t>Ogni fallimento è un passo in avanti… e tu sei già un maratoneta.</t>
+  </si>
+  <si>
+    <t>Brilla come un diamante… anche se sei più simile a un sasso opaco.</t>
+  </si>
+  <si>
+    <t>Le grandi menti cambiano il mondo, tu cambi solo canale.</t>
+  </si>
+  <si>
+    <t>L’importante è crederci… anche quando nessun altro lo fa.</t>
+  </si>
+  <si>
+    <t>Il talento si costruisce con il tempo, quindi c’è ancora speranza per te.</t>
+  </si>
+  <si>
+    <t>Ogni giorno è una nuova opportunità… per peggiorare.</t>
+  </si>
+  <si>
+    <t>Anche i peggiori hanno il loro posto nel mondo… e tu lo stai occupando benissimo.</t>
+  </si>
+  <si>
+    <t>Se la vita ti dà limoni, prova almeno a non sprecarli.</t>
+  </si>
+  <si>
+    <t>Se la bellezza interiore conta, dovresti iniziare a fare qualche deposito.</t>
+  </si>
+  <si>
+    <t>Ogni strada porta a una meta, peccato che tu ti sia perso.</t>
+  </si>
+  <si>
+    <t>L’importante non è vincere, ma trovare qualcuno che perda più di te.</t>
+  </si>
+  <si>
+    <t>La determinazione vince ogni sfida, peccato che tu sia indeciso anche su cosa mangiare.</t>
+  </si>
+  <si>
+    <t>Credi in te stesso! Qualcuno deve pur farlo.</t>
+  </si>
+  <si>
+    <t>Anche l’ombra di un albero secco è utile, troverai anche tu la tua funzione.</t>
+  </si>
+  <si>
+    <t>Il tuo potenziale è infinito, proprio come i tuoi errori.</t>
+  </si>
+  <si>
+    <t>Il mondo è pieno di possibilità, peccato che tu le ignori tutte.</t>
+  </si>
+  <si>
+    <t>Ogni giorno puoi migliorarti… il problema è che non inizi mai.</t>
+  </si>
+  <si>
+    <t>La conoscenza è potere… e tu sei completamente disarmato.</t>
+  </si>
+  <si>
+    <t>Segui i tuoi sogni… sperando che non ti portino in un vicolo cieco.</t>
+  </si>
+  <si>
+    <t>Ogni passo avanti è una vittoria… almeno finché non inciampi.</t>
+  </si>
+  <si>
+    <t>Un giorno sarai un esempio per gli altri… di cosa non fare.</t>
+  </si>
+  <si>
+    <t>Chi osa vince… tu per sicurezza non osi mai.</t>
+  </si>
+  <si>
+    <t>La pazienza è una virtù, e chi ti sopporta è praticamente un santo.</t>
+  </si>
+  <si>
+    <t>Fai ciò che ami e non lavorerai mai… infatti non lavori.</t>
+  </si>
+  <si>
+    <t>Se la fortuna aiuta gli audaci, non stupisce che tu sia sfortunato.</t>
+  </si>
+  <si>
+    <t>Il mondo è nelle mani di chi sa cogliere le opportunità… quindi non le tue.</t>
+  </si>
+  <si>
+    <t>Nessuno è perfetto, ma tu ci vai davvero vicino… al contrario.</t>
+  </si>
+  <si>
+    <t>Guarda sempre avanti… magari un giorno vedrai anche un traguardo.</t>
+  </si>
+  <si>
+    <t>Sei una fonte inesauribile di sorprese… tutte negative.</t>
+  </si>
+  <si>
+    <t>L’importante è provarci… magari non sempre fallirai.</t>
+  </si>
+  <si>
+    <t>Tutti siamo unici… tu però sei un caso a parte.</t>
+  </si>
+  <si>
+    <t>Non c’è limite a ciò che puoi realizzare… a parte le tue capacità.</t>
+  </si>
+  <si>
+    <t>Un giorno capirai il tuo valore… e sarà una giornata deprimente.</t>
+  </si>
+  <si>
+    <t>Credere in sé stessi è il primo passo… tu sei ancora fermo.</t>
+  </si>
+  <si>
+    <t>Non guardarti indietro… anche perché il passato è meglio del presente.</t>
+  </si>
+  <si>
+    <t>La strada del successo è lunga, forse per questo non l’hai mai percorsa.</t>
+  </si>
+  <si>
+    <t>Tutto è possibile… persino che tu migliori.</t>
+  </si>
+  <si>
+    <t>Dai il massimo… anche se è poco.</t>
+  </si>
+  <si>
+    <t>Ogni viaggio inizia con un passo… ma tu resti immobile.</t>
+  </si>
+  <si>
+    <t>Il cambiamento è inevitabile, tranne nel tuo caso.</t>
+  </si>
+  <si>
+    <t>Se vuoi qualcosa, vai e prendila… ma magari chiedi prima se puoi.</t>
+  </si>
+  <si>
+    <t>Sii il cambiamento che vuoi vedere nel mondo… ma magari inizia da te stesso.</t>
+  </si>
+  <si>
+    <t>Sorridi alla vita… almeno farai qualcosa di utile.</t>
+  </si>
+  <si>
+    <t>Un giorno ce la farai… ma non oggi.</t>
+  </si>
+  <si>
+    <t>L’intelligenza è sexy… peccato per te.</t>
+  </si>
+  <si>
+    <t>Abbi fiducia nel destino… perché il talento non è il tuo forte.</t>
+  </si>
+  <si>
+    <t>La costanza premia… ma tu nemmeno ci provi.</t>
+  </si>
+  <si>
+    <t>Ogni ostacolo è un’opportunità… che tu eviti con cura.</t>
+  </si>
+  <si>
+    <t>Sei speciale… ma in un modo che nessuno vuole spiegare.</t>
+  </si>
+  <si>
+    <t>Fatti forza… qualcuno dovrà pur sopportarti.</t>
+  </si>
+  <si>
+    <t>Se il tempo è denaro, tu sei in bancarotta.</t>
+  </si>
+  <si>
+    <t>Non sei un fallimento… ma ci assomigli molto.</t>
+  </si>
+  <si>
+    <t>L’universo ha un piano per tutti… il tuo sembra un errore di battitura.</t>
+  </si>
+  <si>
+    <t>Ogni sconfitta insegna qualcosa… tu dovresti essere un professore.</t>
+  </si>
+  <si>
+    <t>Il sole splende per tutti… tranne che su di te.</t>
+  </si>
+  <si>
+    <t>Anche una tartaruga arriva al traguardo… tu sei ancora fermo.</t>
+  </si>
+  <si>
+    <t>La bellezza viene da dentro… magari prova a guardarti dentro.</t>
+  </si>
+  <si>
+    <t>La tua energia è contagiosa… ma come un raffreddore.</t>
+  </si>
+  <si>
+    <t>Ci vuole coraggio per essere te stesso… e incoscienza per sopportarti.</t>
+  </si>
+  <si>
+    <t>Fai del tuo meglio… almeno provaci.</t>
+  </si>
+  <si>
+    <t>Le possibilità sono infinite… peccato che tu le ignori.</t>
+  </si>
+  <si>
+    <t>Sei la prova che la fortuna non esiste.</t>
+  </si>
+  <si>
+    <t>Se la speranza è l’ultima a morire, la tua deve essere immortale.</t>
+  </si>
+  <si>
+    <t>Ogni sfida è un’opportunità… per vedere quanto puoi peggiorare.</t>
+  </si>
+  <si>
+    <t>Ti meriti il meglio… almeno sulla carta.</t>
+  </si>
+  <si>
+    <t>Se il fallimento fosse un’arte, saresti un capolavoro.</t>
+  </si>
+  <si>
+    <t>Vai avanti, la fine è vicina… almeno per le tue speranze.</t>
+  </si>
+  <si>
+    <t>Il mondo ha bisogno di tutti… ma potrebbe fare a meno di te.</t>
+  </si>
+  <si>
+    <t>Sei speciale… come un errore 404.</t>
+  </si>
+  <si>
+    <t>Tutti possono cambiare… forse anche tu.</t>
+  </si>
+  <si>
+    <t>Sei l’esempio perfetto di come non si fa.</t>
+  </si>
+  <si>
+    <t>I tuoi errori ti rendono unico… e molto costante.</t>
+  </si>
+  <si>
+    <t>Se fossi più lento, saresti in retromarcia.</t>
+  </si>
+  <si>
+    <t>La tua autostima è solida… come il tuo quoziente intellettivo.</t>
+  </si>
+  <si>
+    <t>Ogni giorno è una nuova sfida… e tu perdi sempre.</t>
+  </si>
+  <si>
+    <t>Se fossi una stella, saresti cadente.</t>
+  </si>
+  <si>
+    <t>L’arte di arrangiarsi è importante… e tu sei un capolavoro nel farlo male.</t>
+  </si>
+  <si>
+    <t>La tua determinazione è impressionante… nel non migliorare.</t>
+  </si>
+  <si>
+    <t>Ogni fallimento è una lezione… tu dovresti laurearti.</t>
+  </si>
+  <si>
+    <t>Il tempo è prezioso… quindi smetti di sprecarlo.</t>
+  </si>
+  <si>
+    <t>Hai tutto il tempo del mondo… peccato che lo usi male.</t>
+  </si>
+  <si>
+    <t>La speranza è l’ultima a morire… ma tu la uccidi in fretta.</t>
+  </si>
+  <si>
+    <t>L’ottimismo è fondamentale… ma nel tuo caso è negazione.</t>
+  </si>
+  <si>
+    <t>Ogni ostacolo è un’opportunità… per rimanere fermo.</t>
+  </si>
+  <si>
+    <t>Tutti abbiamo un talento… trovalo prima che sia troppo tardi.</t>
+  </si>
+  <si>
+    <t>Sei l’unico limite a te stesso… e sei davvero insuperabile.</t>
+  </si>
+  <si>
+    <t>Dove c’è volontà, c’è una strada… ma tu sei ancora fermo all’incrocio.</t>
+  </si>
+  <si>
+    <t>La mediocrità è una scelta… che hai abbracciato con entusiasmo.</t>
+  </si>
+  <si>
+    <t>Il cielo è il limite… tu invece ti accontenti del sottoscala.</t>
+  </si>
+  <si>
+    <t>Sii un esempio… per gli altri su cosa non fare.</t>
+  </si>
+  <si>
+    <t>Il tuo valore è inestimabile… nel senso che nessuno lo stima.</t>
+  </si>
+  <si>
+    <t>L’intelligenza è una dote… che non tutti possiedono.</t>
+  </si>
+  <si>
+    <t>C’è sempre speranza… anche per te.</t>
+  </si>
+  <si>
+    <t>Se la pazienza è una virtù, chi ti sopporta è un santo.</t>
+  </si>
+  <si>
+    <t>Nessuno è perfetto… ma tu esageri.</t>
+  </si>
+  <si>
+    <t>Il futuro è nelle tue mani… tremiamo tutti.</t>
+  </si>
+  <si>
+    <t>Non arrenderti mai… perché il mondo ha ancora bisogno di esempi di totale incompetenza.</t>
+  </si>
+  <si>
+    <t>Sii sempre te stesso… almeno così gli altri sapranno subito da chi stare alla larga.</t>
+  </si>
+  <si>
+    <t>Il talento è dentro di te… nascosto così bene che nemmeno la NASA lo troverebbe.</t>
+  </si>
+  <si>
+    <t>Ogni giorno è un nuovo inizio… per deludere le aspettative.</t>
+  </si>
+  <si>
+    <t>Tu sei unico… un esemplare raro di catastrofe ambulante.</t>
+  </si>
+  <si>
+    <t>Segui il tuo cuore… ma prima accertati che funzioni meglio del tuo cervello.</t>
+  </si>
+  <si>
+    <t>La vita è una corsa… ma tu sei fermo al blocco di partenza a guardare gli altri vincere.</t>
+  </si>
+  <si>
+    <t>Hai il potenziale di una bomba… difettosa, che non esplode mai.</t>
+  </si>
+  <si>
+    <t>Continua a provarci… prima o poi anche i peggiori fanno qualcosa di decente per sbaglio.</t>
+  </si>
+  <si>
+    <t>Sei una fonte d’ispirazione… per chi vuole sentirsi meglio con se stesso.</t>
+  </si>
+  <si>
+    <t>Guarda sempre avanti… almeno eviti di vedere il disastro che hai lasciato dietro.</t>
+  </si>
+  <si>
+    <t>I tuoi limiti esistono solo nella tua mente… peccato che anche il cervello sia un’opzione assente.</t>
+  </si>
+  <si>
+    <t>Nessun sogno è troppo grande… per te forse anche alzarti dal letto lo è.</t>
+  </si>
+  <si>
+    <t>Raggiungi le stelle… o almeno cerca di raggiungere un livello di intelligenza accettabile.</t>
+  </si>
+  <si>
+    <t>Non perdere la speranza… è l’unica cosa che ti resta.</t>
+  </si>
+  <si>
+    <t>Sii il cambiamento che vuoi vedere… tipo sparire per un po’.</t>
+  </si>
+  <si>
+    <t>L’intelligenza è come una luce… nel tuo caso, una fiammella che sta per spegnersi.</t>
+  </si>
+  <si>
+    <t>Hai una mente brillante… che sfortunatamente nessuno ha mai visto funzionare.</t>
+  </si>
+  <si>
+    <t>L’ignoranza è una benedizione… e tu sei chiaramente il preferito dal destino.</t>
+  </si>
+  <si>
+    <t>La pazienza è la chiave… ed è per questo che chi ti conosce deve essere un maestro zen.</t>
+  </si>
+  <si>
+    <t>Anche i peggiori possono migliorare… ma tu resti fedele alla tua mediocrità.</t>
+  </si>
+  <si>
+    <t>Ogni giorno è una nuova opportunità… di fallire in modi creativi.</t>
+  </si>
+  <si>
+    <t>Non smettere mai di credere in te stesso… perché nessun altro lo farà.</t>
+  </si>
+  <si>
+    <t>Tu sei speciale… come un bidone della spazzatura pieno di sorprese indesiderate.</t>
+  </si>
+  <si>
+    <t>Abbi fiducia in te stesso… se riesci a ignorare la realtà, potrebbe funzionare.</t>
+  </si>
+  <si>
+    <t>La tua determinazione è incredibile… nel rimanere una delusione costante.</t>
+  </si>
+  <si>
+    <t>Hai tutto per avere successo… tranne intelligenza, talento e senso della realtà.</t>
+  </si>
+  <si>
+    <t>Dove c’è un problema, c’è una soluzione… tranne quando il problema sei tu.</t>
+  </si>
+  <si>
+    <t>Non c’è ostacolo che tu non possa superare… a parte il tuo quoziente intellettivo.</t>
+  </si>
+  <si>
+    <t>Ogni giorno puoi imparare qualcosa di nuovo… peccato che tu abbia rinunciato da tempo.</t>
+  </si>
+  <si>
+    <t>Non guardarti indietro… il tuo passato è già abbastanza imbarazzante.</t>
+  </si>
+  <si>
+    <t>Hai un dono unico… quello di rendere ogni situazione più difficile di quanto dovrebbe essere.</t>
+  </si>
+  <si>
+    <t>Il futuro appartiene a chi si prepara… e tu non hai nemmeno iniziato.</t>
+  </si>
+  <si>
+    <t>Hai un cervello… peccato che sia in modalità aereo da sempre.</t>
+  </si>
+  <si>
+    <t>L’universo ha un piano per te… ma sembra più una punizione karmica.</t>
+  </si>
+  <si>
+    <t>Sei un’anima libera… dal buon senso, dall’intelligenza e dalla logica.</t>
+  </si>
+  <si>
+    <t>Il cielo è il limite… per te è il soffitto della tua cameretta.</t>
+  </si>
+  <si>
+    <t>Credi sempre nei tuoi sogni… perché nella realtà non hai speranze.</t>
+  </si>
+  <si>
+    <t>Tu sei la prova che l’evoluzione può fare passi indietro.</t>
+  </si>
+  <si>
+    <t>Le stelle brillano nel cielo… e tu brilli per la tua totale irrilevanza.</t>
+  </si>
+  <si>
+    <t>Fai del tuo meglio… il problema è che il tuo meglio fa schifo.</t>
+  </si>
+  <si>
+    <t>Tutti siamo nati per uno scopo… il tuo dev’essere quello di farci ridere.</t>
+  </si>
+  <si>
+    <t>La pazienza è una virtù… e chi ti sopporta deve essere un santo.</t>
+  </si>
+  <si>
+    <t>Se fossi un'opera d'arte, saresti un errore di Photoshop.</t>
+  </si>
+  <si>
+    <t>Ci sono leader e ci sono seguaci… e poi ci sei tu, che nemmeno sai dove sei.</t>
+  </si>
+  <si>
+    <t>Il tuo carisma è travolgente… nel senso che travolge e distrugge ogni conversazione.</t>
+  </si>
+  <si>
+    <t>Il tuo cervello è come un computer… che ha bisogno di un aggiornamento urgente.</t>
+  </si>
+  <si>
+    <t>Tutti possono migliorare… nel tuo caso servirebbe un miracolo.</t>
+  </si>
+  <si>
+    <t>Sei una luce nel buio… una luce fioca, tremolante e praticamente inutile.</t>
+  </si>
+  <si>
+    <t>Credi nei tuoi sogni… perché la realtà non è proprio dalla tua parte.</t>
   </si>
 </sst>
 </file>
@@ -1512,11 +1662,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -1851,516 +2002,770 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7A4B89B-C7D0-4504-A326-97C827421168}">
-  <dimension ref="A1:A100"/>
+  <dimension ref="A1:A150"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="78.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="88.140625" style="2" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
+      <c r="A1" s="2" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" s="2" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" s="2" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" s="2" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" s="2" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" s="2" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" s="2" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" s="2" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" s="2" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" s="2" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" s="2" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" s="2" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" s="2" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" s="2" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" s="2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" s="2" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" s="2" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" s="2" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" s="2" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" s="2" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" s="2" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" s="2" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" s="2" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" s="2" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" s="2" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" s="2" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" s="2" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" s="2" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" s="2" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" s="2" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" s="2" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109" s="2" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110" s="2" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111" s="2" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112" s="2" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" s="2" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115" s="2" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117" s="2" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118" s="2" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119" s="2" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120" s="2" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121" s="2" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122" s="2" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125" s="2" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126" s="2" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A128" s="2" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129" s="2" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130" s="2" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131" s="2" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132" s="2" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133" s="2" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134" s="2" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135" s="2" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A136" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A137" s="2" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A138" s="2" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A139" s="2" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A140" s="2" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A141" s="2" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A142" s="2" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A143" s="2" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A144" s="2" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145" s="2" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146" s="2" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A147" s="2" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A148" s="2" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A149" s="2" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A150" s="2" t="s">
         <v>447</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>476</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2379,1887 +2784,1887 @@
   <sheetData>
     <row r="1" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="36" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="37" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="38" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="39" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="40" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="41" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="42" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="43" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="44" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="46" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="47" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="48" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="49" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="50" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="51" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="52" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="53" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="54" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="55" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="56" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="57" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="58" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="59" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="60" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="61" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="62" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="64" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="65" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="66" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="67" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="68" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="69" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="70" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="71" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="72" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="73" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="74" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="75" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="76" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="77" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="78" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="79" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="80" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="81" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="82" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="83" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="84" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="85" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="86" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="87" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="88" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="89" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="90" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="91" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="92" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="93" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="94" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="95" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="97" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="98" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="99" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="100" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="101" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="102" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="103" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="104" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="105" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="106" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="107" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="108" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="109" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="110" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="111" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="112" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="113" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="114" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="115" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="116" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="117" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="118" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="119" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="120" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="121" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="122" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="123" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="124" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="125" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="126" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="127" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="129" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="130" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="131" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="132" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="133" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="134" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="135" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="136" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="137" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="138" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="139" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="140" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="141" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="142" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="143" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="144" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="145" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="146" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="147" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="148" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="149" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="150" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="151" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="152" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="153" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="154" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="155" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="156" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="157" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="158" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="159" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="160" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="162" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="163" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="164" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="165" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="166" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="167" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="168" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="169" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="170" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="171" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="172" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="173" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="174" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="175" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="176" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="177" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="178" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="179" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="180" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="181" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="182" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="183" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="184" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="185" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="186" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="187" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="188" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="189" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="190" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="191" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="192" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="194" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="195" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="196" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="197" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="198" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="199" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="200" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="201" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="202" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="203" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="204" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="205" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="206" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="207" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="208" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="209" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="210" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="211" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="212" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="213" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="214" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="215" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="216" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="217" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="218" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="219" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="220" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="221" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="222" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="223" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="224" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="225" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="227" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="228" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="229" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="230" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="231" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="232" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="233" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="234" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="235" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="236" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="237" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="238" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="239" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="240" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="241" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="242" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="243" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="244" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="245" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="246" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="247" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="248" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="249" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="250" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="251" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="252" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="253" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="254" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="255" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="256" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="257" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="258" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="260" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="261" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="262" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="263" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="264" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="265" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="266" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="267" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="268" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="269" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="270" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="271" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="272" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="273" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="274" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="275" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="276" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="277" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="278" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="279" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="280" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="281" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="282" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A282" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="283" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A283" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="284" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="285" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A285" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="286" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="287" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A287" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="288" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A288" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="289" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A289" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="290" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A290" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="292" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A292" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="293" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A293" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="294" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A294" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="295" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A295" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="296" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A296" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="297" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A297" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="298" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A298" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="299" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A299" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="300" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A300" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="301" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A301" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="302" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A302" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="303" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A303" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="304" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A304" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="305" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A305" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="306" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A306" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="307" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A307" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="308" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A308" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="309" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A309" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="310" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A310" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="311" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A311" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="312" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A312" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="313" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A313" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="314" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A314" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="315" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A315" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="316" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A316" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="317" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A317" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="318" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A318" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="319" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A319" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="320" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A320" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="321" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A321" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="322" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A322" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="323" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A323" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="325" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A325" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="326" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A326" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="327" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A327" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="328" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A328" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="329" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A329" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="330" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A330" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="331" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A331" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="332" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A332" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="333" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A333" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="334" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A334" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="335" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A335" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="336" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A336" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="337" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A337" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="338" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A338" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="339" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A339" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="340" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A340" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="341" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A341" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="342" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A342" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="343" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A343" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="344" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A344" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="345" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A345" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="346" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A346" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="347" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A347" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="348" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A348" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="349" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A349" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="350" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A350" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="351" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A351" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="352" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A352" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="353" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A353" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="354" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A354" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="355" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A355" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="357" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A357" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="358" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A358" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="359" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A359" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="360" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A360" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="361" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A361" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="362" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A362" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="363" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A363" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="364" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A364" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="365" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A365" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="366" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A366" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="367" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A367" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="368" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A368" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="369" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A369" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="370" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A370" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="371" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A371" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="372" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A372" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="373" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A373" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="374" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A374" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="375" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A375" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="376" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A376" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="377" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A377" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="378" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A378" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="379" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A379" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="380" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A380" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="381" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A381" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="382" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A382" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="383" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A383" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="384" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A384" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="385" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A385" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="386" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A386" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="387" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A387" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="388" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A388" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
   </sheetData>
